--- a/notebooks/tmp.xlsx
+++ b/notebooks/tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="223">
   <si>
     <t>Sygnatura czasowa</t>
   </si>
@@ -635,6 +635,48 @@
   </si>
   <si>
     <t>I don't read books</t>
+  </si>
+  <si>
+    <t>Bodyguard at concerts</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Sci-Fi &amp; Fantasy</t>
+  </si>
+  <si>
+    <t>Table top RPG games (D&amp;D, Pathfinder etc.)</t>
+  </si>
+  <si>
+    <t>Poetry</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>Fantazy/adventurous</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>induction loop technician</t>
+  </si>
+  <si>
+    <t>Im not working</t>
+  </si>
+  <si>
+    <t>Slavic mithology</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>0.5</t>
@@ -8472,61 +8514,2366 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="4">
+      <c r="A86" s="3">
+        <v>45147.00351552083</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H86" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I86" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J86" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R86" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S86" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W86" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="X86" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y86" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB86" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC86" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3">
+        <v>45147.39078418982</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q87" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="R87" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S87" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W87" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y87" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z87" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC87" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3">
+        <v>45147.51046695602</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J88" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="R88" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S88" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T88" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W88" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y88" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z88" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB88" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3">
+        <v>45147.56232049769</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I89" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J89" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="R89" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T89" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W89" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X89" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA89" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC89" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3">
+        <v>45147.899470034725</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J90" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K90" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="R90" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S90" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T90" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U90" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X90" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y90" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB90" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC90" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3">
+        <v>45148.37815457176</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H91" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R91" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W91" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="X91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y91" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z91" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA91" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB91" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC91" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3">
+        <v>45148.382957037036</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H92" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R92" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T92" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W92" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X92" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y92" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z92" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC92" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3">
+        <v>45148.39807791667</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I93" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R93" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T93" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W93" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB93" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC93" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3">
+        <v>45148.39949638888</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J94" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q94" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="R94" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S94" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T94" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W94" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X94" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z94" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC94" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3">
+        <v>45148.40736055556</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I95" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J95" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K95" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q95" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R95" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S95" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U95" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W95" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X95" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y95" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z95" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA95" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB95" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC95" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3">
+        <v>45148.44670354167</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I96" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J96" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K96" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R96" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W96" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X96" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA96" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC96" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3">
+        <v>45148.450020324075</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I97" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="J97" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K97" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q97" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R97" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T97" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V97" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="W97" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X97" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB97" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC97" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3">
+        <v>45148.45539818287</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J98" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K98" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="R98" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T98" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W98" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="X98" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z98" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB98" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC98" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3">
+        <v>45148.45559452546</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J99" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K99" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R99" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S99" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T99" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W99" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X99" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA99" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC99" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3">
+        <v>45148.45978798611</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H100" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J100" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="K100" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q100" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="R100" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S100" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="T100" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U100" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W100" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X100" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y100" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB100" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC100" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3">
+        <v>45148.49287440973</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H101" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I101" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J101" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K101" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q101" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R101" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S101" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T101" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W101" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="X101" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y101" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA101" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB101" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC101" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3">
+        <v>45149.56887796296</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J102" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K102" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O102" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="R102" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="S102" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T102" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V102" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W102" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X102" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y102" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA102" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC102" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3">
+        <v>45149.82573217593</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H103" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J103" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="K103" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O103" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="R103" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S103" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T103" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V103" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W103" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="X103" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y103" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA103" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB103" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC103" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3">
+        <v>45149.88567693287</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J104" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K104" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R104" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S104" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T104" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U104" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V104" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X104" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y104" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z104" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA104" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB104" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC104" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3">
+        <v>45150.47088432871</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J105" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K105" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q105" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R105" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="S105" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T105" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V105" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W105" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X105" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y105" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA105" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB105" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC105" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3">
+        <v>45151.46795976852</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K106" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R106" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T106" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U106" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W106" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z106" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA106" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB106" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC106" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3">
+        <v>45153.311446493055</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J107" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K107" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R107" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T107" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U107" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W107" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X107" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y107" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z107" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA107" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB107" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC107" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3">
+        <v>45153.85349129629</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H108" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J108" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K108" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R108" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="T108" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U108" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W108" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="X108" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y108" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA108" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB108" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC108" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3">
+        <v>45154.68402238426</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H109" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="K109" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R109" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T109" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U109" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W109" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="X109" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y109" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z109" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA109" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB109" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC109" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3">
+        <v>45156.40300877315</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H110" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J110" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="K110" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q110" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R110" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T110" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U110" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V110" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W110" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="X110" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA110" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB110" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC110" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3">
+        <v>45157.68624384259</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H111" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J111" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="K111" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R111" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T111" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U111" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="V111" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W111" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="X111" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y111" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z111" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA111" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB111" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC111" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="4">
         <v>1.0</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C112" s="4">
         <v>1.0</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D112" s="4">
         <v>1.0</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E112" s="4">
         <v>1.0</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F112" s="4">
         <v>1.0</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G112" s="4">
         <v>1.0</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H112" s="4">
         <v>0.0</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I112" s="4">
         <v>0.0</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J112" s="4">
         <v>1.0</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K112" s="4">
         <v>0.0</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L112" s="4">
         <v>0.0</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M112" s="4">
         <v>1.0</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N112" s="4">
         <v>1.0</v>
       </c>
-      <c r="O86" s="4">
+      <c r="O112" s="4">
         <v>1.0</v>
       </c>
-      <c r="P86" s="4">
+      <c r="P112" s="4">
         <v>1.0</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="Q112" s="4">
         <v>1.0</v>
       </c>
-      <c r="R86" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="U86" s="4">
+      <c r="R112" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="U112" s="4">
         <v>0.0</v>
       </c>
-      <c r="V86" s="4">
+      <c r="V112" s="4">
         <v>0.0</v>
       </c>
     </row>
